--- a/src/main/resources/PAYGTL_LORA_BLE Work Details.xlsx
+++ b/src/main/resources/PAYGTL_LORA_BLE Work Details.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="53">
   <si>
     <t>Module No.</t>
   </si>
@@ -898,7 +898,7 @@
   <dimension ref="B1:G57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -955,7 +955,7 @@
       <c r="C5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="20">
         <v>1</v>
       </c>
       <c r="F5" s="4" t="s">
@@ -975,6 +975,9 @@
       <c r="F6" s="4" t="s">
         <v>32</v>
       </c>
+      <c r="G6" s="1" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" s="20">
@@ -988,6 +991,9 @@
       </c>
       <c r="F7" s="4" t="s">
         <v>33</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
@@ -1346,7 +1352,7 @@
       </c>
     </row>
     <row r="49" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="5">
+      <c r="B49" s="21">
         <v>12</v>
       </c>
       <c r="C49" s="6" t="s">

--- a/src/main/resources/PAYGTL_LORA_BLE Work Details.xlsx
+++ b/src/main/resources/PAYGTL_LORA_BLE Work Details.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="225" windowWidth="14805" windowHeight="7890"/>
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="PAYGTL_BLE_LORA" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="54">
   <si>
     <t>Module No.</t>
   </si>
@@ -67,9 +67,6 @@
     <t xml:space="preserve">Database Migration from Ms SQL Server to MYSQL </t>
   </si>
   <si>
-    <t>Date Picker</t>
-  </si>
-  <si>
     <t>Topup Reports</t>
   </si>
   <si>
@@ -173,13 +170,19 @@
   </si>
   <si>
     <t>User consumption reports modificatiions</t>
+  </si>
+  <si>
+    <t>Responsive Page</t>
+  </si>
+  <si>
+    <t>Date Picker / Time Picker</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -252,7 +255,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -492,6 +495,32 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -503,7 +532,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -590,6 +619,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Accent1" xfId="3" builtinId="29"/>
@@ -683,7 +718,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -718,7 +752,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -894,14 +927,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G57"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:G59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="14.140625" style="1" customWidth="1"/>
@@ -914,27 +947,27 @@
     <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:7" ht="15.75" thickBot="1">
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
     </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:7">
       <c r="B2" s="25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C2" s="26"/>
       <c r="E2" s="25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F2" s="26"/>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:7">
       <c r="B3" s="3"/>
       <c r="C3" s="4"/>
       <c r="E3" s="3"/>
       <c r="F3" s="4"/>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:7">
       <c r="B4" s="12" t="s">
         <v>0</v>
       </c>
@@ -948,7 +981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:7">
       <c r="B5" s="20">
         <v>1</v>
       </c>
@@ -959,10 +992,10 @@
         <v>1</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7">
       <c r="B6" s="3">
         <v>2</v>
       </c>
@@ -973,10 +1006,10 @@
         <v>2</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7">
       <c r="B7" s="20">
         <v>3</v>
       </c>
@@ -987,10 +1020,10 @@
         <v>3</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7">
       <c r="B8" s="20">
         <v>4</v>
       </c>
@@ -1001,80 +1034,80 @@
         <v>4</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" ht="15.75" thickBot="1">
       <c r="B9" s="8">
         <v>5</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E9" s="3">
         <v>5</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" ht="15.75" thickBot="1">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="E10" s="20">
         <v>6</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7">
       <c r="E11" s="3">
         <v>7</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" ht="15.75" thickBot="1">
       <c r="E12" s="3">
         <v>8</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" ht="15.75" thickBot="1">
       <c r="B13" s="27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C13" s="28"/>
       <c r="E13" s="5">
         <v>9</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7">
       <c r="B14" s="18"/>
       <c r="C14" s="19"/>
       <c r="E14"/>
       <c r="F14"/>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:7">
       <c r="B15" s="13" t="s">
         <v>0</v>
       </c>
@@ -1084,7 +1117,7 @@
       <c r="E15"/>
       <c r="F15"/>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:7">
       <c r="B16" s="20">
         <v>1</v>
       </c>
@@ -1092,7 +1125,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:6">
       <c r="B17" s="20">
         <v>2</v>
       </c>
@@ -1100,7 +1133,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:6">
       <c r="B18" s="20">
         <v>3</v>
       </c>
@@ -1110,7 +1143,7 @@
       <c r="E18" s="29"/>
       <c r="F18" s="29"/>
     </row>
-    <row r="19" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:6" ht="30">
       <c r="B19" s="20">
         <v>4</v>
       </c>
@@ -1120,7 +1153,7 @@
       <c r="E19"/>
       <c r="F19"/>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:6">
       <c r="B20" s="20">
         <v>5</v>
       </c>
@@ -1128,7 +1161,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:6">
       <c r="B21" s="20">
         <v>6</v>
       </c>
@@ -1136,7 +1169,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:6" ht="30">
       <c r="B22" s="20">
         <v>7</v>
       </c>
@@ -1144,7 +1177,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:6">
       <c r="B23" s="20">
         <v>8</v>
       </c>
@@ -1152,7 +1185,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:6">
       <c r="B24" s="20">
         <v>9</v>
       </c>
@@ -1160,7 +1193,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:6">
       <c r="B25" s="20">
         <v>10</v>
       </c>
@@ -1168,7 +1201,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:6">
       <c r="B26" s="20">
         <v>11</v>
       </c>
@@ -1176,235 +1209,247 @@
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:6">
       <c r="B27" s="20">
         <v>12</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6">
       <c r="B28" s="20">
         <v>13</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6">
       <c r="B29" s="20">
         <v>14</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6">
       <c r="B30" s="20">
         <v>15</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" ht="30">
       <c r="B31" s="20">
         <v>16</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6">
       <c r="B32" s="20">
         <v>17</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" ht="15.75" thickBot="1">
       <c r="B33" s="5">
         <v>18</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D33" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" ht="15.75" thickBot="1">
+      <c r="B34" s="30">
+        <v>19</v>
+      </c>
+      <c r="C34" s="31" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4">
+      <c r="B35" s="15"/>
+      <c r="C35" s="17"/>
+    </row>
+    <row r="36" spans="2:4" ht="15.75" thickBot="1">
+      <c r="B36" s="15"/>
+      <c r="C36" s="16"/>
+    </row>
+    <row r="37" spans="2:4" ht="15.75" thickBot="1">
+      <c r="B37" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="C37" s="28"/>
+    </row>
+    <row r="38" spans="2:4">
+      <c r="B38" s="18"/>
+      <c r="C38" s="19"/>
+    </row>
+    <row r="39" spans="2:4">
+      <c r="B39" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4">
+      <c r="B40" s="20">
+        <v>1</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" ht="30">
+      <c r="B41" s="20">
+        <v>2</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4">
+      <c r="B42" s="20">
+        <v>3</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" ht="30">
+      <c r="B43" s="20">
+        <v>4</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4">
+      <c r="B44" s="20">
+        <v>5</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4">
+      <c r="B45" s="20">
+        <v>6</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" ht="30">
+      <c r="B46" s="20">
+        <v>7</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4">
+      <c r="B47" s="20">
+        <v>8</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4">
+      <c r="B48" s="20">
+        <v>9</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" ht="30">
+      <c r="B49" s="20">
+        <v>10</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3">
+      <c r="B50" s="20">
+        <v>11</v>
+      </c>
+      <c r="C50" s="7" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="34" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="15"/>
-      <c r="C34" s="16"/>
-    </row>
-    <row r="35" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="27" t="s">
+    <row r="51" spans="2:3" ht="15.75" thickBot="1">
+      <c r="B51" s="5">
+        <v>12</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" ht="15.75" thickBot="1">
+      <c r="B52" s="15"/>
+      <c r="C52" s="17"/>
+    </row>
+    <row r="53" spans="2:3">
+      <c r="B53" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="C35" s="28"/>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B36" s="18"/>
-      <c r="C36" s="19"/>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B37" s="12" t="s">
+      <c r="C53" s="26"/>
+    </row>
+    <row r="54" spans="2:3" ht="15.75" thickBot="1">
+      <c r="B54" s="8"/>
+      <c r="C54" s="9"/>
+    </row>
+    <row r="55" spans="2:3">
+      <c r="B55" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C37" s="12" t="s">
+      <c r="C55" s="24" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B38" s="20">
+    <row r="56" spans="2:3">
+      <c r="B56" s="20">
         <v>1</v>
       </c>
-      <c r="C38" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="39" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B39" s="20">
+      <c r="C56" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3" ht="15.75" thickBot="1">
+      <c r="B57" s="21">
         <v>2</v>
       </c>
-      <c r="C39" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B40" s="20">
-        <v>3</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="41" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B41" s="20">
-        <v>4</v>
-      </c>
-      <c r="C41" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B42" s="20">
-        <v>5</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B43" s="20">
-        <v>6</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="44" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B44" s="20">
-        <v>7</v>
-      </c>
-      <c r="C44" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B45" s="20">
-        <v>8</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B46" s="20">
-        <v>9</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="47" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B47" s="20">
+      <c r="C57" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C47" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B48" s="20">
-        <v>11</v>
-      </c>
-      <c r="C48" s="7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="49" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="5">
-        <v>12</v>
-      </c>
-      <c r="C49" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="50" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="15"/>
-      <c r="C50" s="17"/>
-    </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B51" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="C51" s="26"/>
-    </row>
-    <row r="52" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="8"/>
-      <c r="C52" s="9"/>
-    </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B53" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="C53" s="24" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B54" s="20">
-        <v>1</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="55" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="21">
-        <v>2</v>
-      </c>
-      <c r="C55" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B56" s="22"/>
-      <c r="C56" s="22"/>
-    </row>
-    <row r="57" spans="2:3" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57"/>
-      <c r="C57"/>
+    </row>
+    <row r="58" spans="2:3">
+      <c r="B58" s="22"/>
+      <c r="C58" s="22"/>
+    </row>
+    <row r="59" spans="2:3" ht="58.5" customHeight="1">
+      <c r="B59"/>
+      <c r="C59"/>
     </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B53:C53"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="E18:F18"/>
   </mergeCells>
